--- a/fhir/StructureDefinition-ehealth-message.xlsx
+++ b/fhir/StructureDefinition-ehealth-message.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:09:52+00:00</t>
+    <t>2024-09-02T14:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-message.xlsx
+++ b/fhir/StructureDefinition-ehealth-message.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:04:41+00:00</t>
+    <t>2025-02-17T14:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-message.xlsx
+++ b/fhir/StructureDefinition-ehealth-message.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-message.xlsx
+++ b/fhir/StructureDefinition-ehealth-message.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1839,17 +1839,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.7890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.22265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="204.4609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="175.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1858,25 +1858,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.4140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.21484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.65234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.1953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.7421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="50.6484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="79.16796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="43.421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="67.875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/StructureDefinition-ehealth-message.xlsx
+++ b/fhir/StructureDefinition-ehealth-message.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-message.xlsx
+++ b/fhir/StructureDefinition-ehealth-message.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="499">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}nemsms-invariant:If communication resource is a NemSMS payload cannot exceed 160 {medium.coding.where(code = 'nemsms').exists() implies payload.contentString.length() &lt;= 160}note-invariant:Category note invariant {category.coding.code = 'note' implies (sender.reference = recipient.reference) or (recipient.reference.exists().not() and extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-recipientCareTeam').valueReference.exists())}notification-invariant:Category notification invariant {category.coding.code = 'notification' implies (recipient.reference.contains('Patient/') or extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-recipientCareTeam').valueReference.exists()) and ( sender.reference.contains('Device/') or contained.ofType(Device).where('#' + id = %resource.sender.reference).empty().not())}message-invariant:Category message invariant {category.coding.code = 'message' implies (recipient.reference.contains('Patient/') and ( extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-senderCareTeam').valueReference.exists())) or (( extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-recipientCareTeam').valueReference.exists()) and (sender.reference.contains('Patient/')) or (extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-recipientCareTeam').valueReference.exists() and extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-senderCareTeam').valueReference.exists() ))}advice-invariant:Category advice invariant {category.coding.code = 'advice' implies (recipient.reference.contains('Patient/') or extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-recipientCareTeam').valueReference.exists()) and ( sender.reference.contains('Device/') or contained.ofType(Device).where('#' + id = %resource.sender.reference).empty().not())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}nemsms-invariant:If communication resource is a NemSMS payload cannot exceed 160 {medium.coding.where(code = 'nemsms').exists() implies payload.content.ofType(string).length() &lt;= 160}note-invariant:Category note invariant {category.coding.code contains 'note' implies (recipient.reference contains sender.reference) or (recipient.reference.exists().not() and extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-recipientCareTeam').value.as(Reference).exists())}notification-invariant:Category notification invariant {category.coding.code contains 'notification' implies (recipient.reference.contains('Patient/') or extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-recipientCareTeam').value.as(Reference).exists()) and ( sender.reference.contains('Device/') or contained.ofType(Device).where('#' + id = %resource.sender.reference).empty().not())}message-invariant:Category message invariant {category.coding.code contains 'message' implies (recipient.reference.contains('Patient/') and ( extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-senderCareTeam').value.as(Reference).exists())) or (( extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-recipientCareTeam').value.as(Reference).exists()) and (sender.reference.contains('Patient/')) or (extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-recipientCareTeam').value.as(Reference).exists() and extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-senderCareTeam').value.as(Reference).exists() ))}advice-invariant:Category advice invariant {category.coding.code contains 'advice' implies (recipient.reference.contains('Patient/') or extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-communication-recipientCareTeam').value.as(Reference).exists()) and ( sender.reference.contains('Device/') or contained.ofType(Device).where('#' + id = %resource.sender.reference).empty().not())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -446,7 +446,7 @@
     <t>episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-episodeOfCare} &lt;&lt;referenced&gt;&gt;
+    <t xml:space="preserve">Extension {workflow-episodeOfCare}
 </t>
   </si>
   <si>
@@ -457,6 +457,84 @@
   </si>
   <si>
     <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Communication.extension:episodeOfCare.id</t>
+  </si>
+  <si>
+    <t>Communication.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Communication.extension:episodeOfCare.extension</t>
+  </si>
+  <si>
+    <t>Communication.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Communication.extension:episodeOfCare.url</t>
+  </si>
+  <si>
+    <t>Communication.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/workflow-episodeOfCare</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Communication.extension:episodeOfCare.value[x]</t>
+  </si>
+  <si>
+    <t>Communication.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(EpisodeOfCare) &lt;&lt;referenced&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
   </si>
   <si>
     <t>Communication.extension:recipientCareTeam</t>
@@ -475,10 +553,6 @@
     <t>CareTeam that is a recipient of a Communication</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Communication.extension:senderCareTeam</t>
   </si>
   <si>
@@ -852,18 +926,6 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Communication.category:DkTmCategory.extension</t>
   </si>
   <si>
@@ -874,12 +936,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Communication.category:DkTmCategory.coding</t>
@@ -1830,7 +1886,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM80"/>
+  <dimension ref="A1:AM84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2994,11 +3050,9 @@
         <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C11" t="s" s="2">
         <v>143</v>
       </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>74</v>
       </c>
@@ -3019,13 +3073,13 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3076,19 +3130,19 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>74</v>
@@ -3097,19 +3151,17 @@
         <v>74</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>74</v>
       </c>
@@ -3118,7 +3170,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -3130,13 +3182,13 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3175,19 +3227,19 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3196,7 +3248,7 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>135</v>
@@ -3216,20 +3268,18 @@
         <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s" s="2">
         <v>154</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -3241,22 +3291,24 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>74</v>
@@ -3298,19 +3350,19 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
@@ -3319,25 +3371,23 @@
         <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>84</v>
@@ -3352,13 +3402,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3409,19 +3459,19 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
@@ -3430,18 +3480,18 @@
         <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>128</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>74</v>
@@ -3451,7 +3501,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3463,13 +3513,13 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3546,20 +3596,20 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>128</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>84</v>
@@ -3574,13 +3624,13 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3657,13 +3707,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>128</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>74</v>
@@ -3673,7 +3723,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3685,13 +3735,13 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3768,13 +3818,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>128</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>74</v>
@@ -3796,13 +3846,13 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3879,13 +3929,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>128</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>74</v>
@@ -3895,7 +3945,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3907,13 +3957,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3990,26 +4040,26 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>128</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>74</v>
@@ -4018,13 +4068,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4101,46 +4151,44 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
@@ -4188,7 +4236,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4197,7 +4245,7 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>135</v>
@@ -4209,17 +4257,19 @@
         <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4228,7 +4278,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4237,23 +4287,19 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4301,7 +4347,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4310,16 +4356,16 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4330,9 +4376,11 @@
         <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4341,7 +4389,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4350,16 +4398,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4410,7 +4458,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4419,29 +4467,31 @@
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>210</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4450,29 +4500,27 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4521,7 +4569,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4530,31 +4578,31 @@
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>210</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4567,24 +4615,26 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4632,7 +4682,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4644,28 +4694,28 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4684,16 +4734,20 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4741,7 +4795,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4756,10 +4810,10 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4790,7 +4844,7 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>230</v>
@@ -4865,21 +4919,21 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4887,31 +4941,31 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4937,13 +4991,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>238</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4961,13 +5015,13 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
@@ -4976,32 +5030,32 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -5013,16 +5067,16 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5048,13 +5102,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -5072,13 +5126,13 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
@@ -5087,7 +5141,7 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -5098,18 +5152,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>76</v>
@@ -5121,20 +5175,18 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5159,29 +5211,31 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5196,10 +5250,10 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>74</v>
@@ -5207,23 +5261,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -5235,17 +5287,15 @@
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5270,13 +5320,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5294,7 +5344,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5312,7 +5362,7 @@
         <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -5320,10 +5370,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5331,7 +5381,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>84</v>
@@ -5340,21 +5390,23 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5379,13 +5431,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5403,10 +5455,10 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>84</v>
@@ -5415,35 +5467,35 @@
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5452,19 +5504,19 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5490,57 +5542,57 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>276</v>
@@ -5551,7 +5603,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>76</v>
@@ -5563,23 +5615,21 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5603,31 +5653,29 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>280</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5645,10 +5693,10 @@
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>74</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -5656,15 +5704,17 @@
         <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C35" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>84</v>
@@ -5679,15 +5729,17 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5712,13 +5764,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>280</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5736,28 +5788,28 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>74</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" hidden="true">
@@ -5769,14 +5821,14 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5788,17 +5840,15 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>271</v>
+        <v>144</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5835,31 +5885,31 @@
         <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5868,26 +5918,26 @@
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>268</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5896,23 +5946,21 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5921,7 +5969,7 @@
         <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>74</v>
@@ -5948,31 +5996,31 @@
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5981,15 +6029,15 @@
         <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>296</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6000,7 +6048,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -6012,18 +6060,20 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
@@ -6071,13 +6121,13 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
@@ -6092,15 +6142,15 @@
         <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6120,21 +6170,19 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>144</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
+        <v>145</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>308</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6158,11 +6206,13 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>309</v>
+        <v>74</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6180,7 +6230,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6192,7 +6242,7 @@
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -6201,26 +6251,26 @@
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>311</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6229,21 +6279,21 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6279,31 +6329,31 @@
         <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>317</v>
+        <v>152</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6312,15 +6362,15 @@
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>318</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6328,7 +6378,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>84</v>
@@ -6343,19 +6393,19 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6365,7 +6415,7 @@
         <v>74</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>74</v>
@@ -6404,7 +6454,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6425,15 +6475,15 @@
         <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6456,20 +6506,18 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6517,7 +6565,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6538,15 +6586,15 @@
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6572,21 +6620,19 @@
         <v>104</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q43" t="s" s="2">
-        <v>340</v>
-      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6606,13 +6652,11 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6630,7 +6674,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6648,18 +6692,18 @@
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>343</v>
+        <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>74</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6670,7 +6714,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6679,19 +6723,21 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6715,35 +6761,37 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>347</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
@@ -6758,19 +6806,17 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6788,19 +6834,23 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>244</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6824,13 +6874,13 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>347</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -6854,7 +6904,7 @@
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
@@ -6869,15 +6919,15 @@
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6897,19 +6947,23 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6957,7 +7011,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6969,7 +7023,7 @@
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6978,26 +7032,26 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>268</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>354</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -7006,25 +7060,27 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>194</v>
+        <v>357</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="R47" t="s" s="2">
         <v>74</v>
       </c>
@@ -7044,60 +7100,60 @@
         <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>74</v>
+        <v>359</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>74</v>
+        <v>360</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>74</v>
+        <v>361</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7117,23 +7173,19 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>278</v>
+        <v>363</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7157,31 +7209,29 @@
         <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>74</v>
+        <v>365</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>74</v>
+        <v>366</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7202,17 +7252,19 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7233,13 +7285,13 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>265</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>266</v>
+        <v>364</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7266,13 +7318,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>74</v>
+        <v>365</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>74</v>
+        <v>366</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7290,19 +7342,19 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>267</v>
+        <v>362</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
@@ -7311,26 +7363,26 @@
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -7342,17 +7394,15 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>271</v>
+        <v>144</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -7389,31 +7439,31 @@
         <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
@@ -7422,26 +7472,26 @@
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>268</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7450,23 +7500,21 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7475,7 +7523,7 @@
         <v>74</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>363</v>
+        <v>74</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>74</v>
@@ -7502,31 +7550,31 @@
         <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
@@ -7535,15 +7583,15 @@
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>296</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7554,7 +7602,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7566,18 +7614,20 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O52" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7625,13 +7675,13 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
@@ -7646,15 +7696,15 @@
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7674,21 +7724,19 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>306</v>
+        <v>144</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>307</v>
+        <v>145</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>308</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7712,11 +7760,13 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7734,7 +7784,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7746,7 +7796,7 @@
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
@@ -7755,26 +7805,26 @@
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>311</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7783,21 +7833,21 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7833,31 +7883,31 @@
         <v>74</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>317</v>
+        <v>152</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
@@ -7866,15 +7916,15 @@
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>318</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7882,7 +7932,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>84</v>
@@ -7897,19 +7947,19 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7919,7 +7969,7 @@
         <v>74</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>74</v>
@@ -7958,7 +8008,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7979,15 +8029,15 @@
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8010,20 +8060,18 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
       </c>
@@ -8071,7 +8119,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8092,19 +8140,19 @@
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8123,16 +8171,18 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>377</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8156,13 +8206,11 @@
         <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>74</v>
+        <v>386</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -8180,7 +8228,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8195,21 +8243,21 @@
         <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>380</v>
+        <v>74</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>381</v>
+        <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>74</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8229,21 +8277,21 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8267,13 +8315,13 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>387</v>
+        <v>74</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>74</v>
@@ -8291,7 +8339,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8309,10 +8357,10 @@
         <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" hidden="true">
@@ -8320,7 +8368,7 @@
         <v>389</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8331,7 +8379,7 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -8340,21 +8388,23 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>218</v>
+        <v>339</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8402,13 +8452,13 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
@@ -8420,18 +8470,18 @@
         <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>74</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8454,18 +8504,20 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>394</v>
+        <v>288</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
       </c>
@@ -8513,7 +8565,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8528,25 +8580,25 @@
         <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>74</v>
+        <v>394</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8562,16 +8614,16 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8622,7 +8674,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8637,10 +8689,10 @@
         <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8648,10 +8700,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8674,15 +8726,17 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>400</v>
+        <v>268</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8707,13 +8761,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8731,7 +8785,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8746,10 +8800,10 @@
         <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>408</v>
+        <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8757,10 +8811,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8771,7 +8825,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8783,15 +8837,17 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>74</v>
@@ -8840,7 +8896,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8855,10 +8911,10 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>413</v>
+        <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -8866,10 +8922,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8889,18 +8945,20 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -8949,7 +9007,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8964,10 +9022,10 @@
         <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>74</v>
@@ -8975,10 +9033,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8989,7 +9047,7 @@
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
@@ -8998,20 +9056,18 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>244</v>
+        <v>418</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>422</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
@@ -9036,11 +9092,13 @@
         <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>423</v>
+        <v>74</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -9058,13 +9116,13 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
@@ -9073,21 +9131,21 @@
         <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>426</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9098,7 +9156,7 @@
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
@@ -9107,16 +9165,16 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9167,13 +9225,13 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>74</v>
@@ -9182,21 +9240,21 @@
         <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>432</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9219,13 +9277,13 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9276,7 +9334,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9291,10 +9349,10 @@
         <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>74</v>
+        <v>431</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9302,10 +9360,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9328,13 +9386,13 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>264</v>
+        <v>434</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>265</v>
+        <v>435</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>266</v>
+        <v>436</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9385,7 +9443,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>267</v>
+        <v>433</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9397,28 +9455,28 @@
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>74</v>
+        <v>431</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9434,19 +9492,19 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>271</v>
+        <v>438</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>272</v>
+        <v>439</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>194</v>
+        <v>440</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9472,13 +9530,11 @@
         <v>74</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -9496,7 +9552,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>274</v>
+        <v>437</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9508,28 +9564,28 @@
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>74</v>
+        <v>443</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>268</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>440</v>
+        <v>74</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9542,26 +9598,22 @@
         <v>74</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>129</v>
+        <v>446</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9609,7 +9661,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9621,24 +9673,24 @@
         <v>74</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>74</v>
+        <v>449</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>74</v>
+        <v>443</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>127</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9646,7 +9698,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>84</v>
@@ -9661,13 +9713,13 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>264</v>
+        <v>452</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9706,23 +9758,25 @@
         <v>74</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AC71" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>448</v>
+        <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>74</v>
@@ -9742,20 +9796,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>84</v>
@@ -9770,13 +9822,13 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>445</v>
+        <v>144</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>446</v>
+        <v>145</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9827,10 +9879,10 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>444</v>
+        <v>146</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>84</v>
@@ -9839,7 +9891,7 @@
         <v>74</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>74</v>
@@ -9848,19 +9900,19 @@
         <v>74</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9879,15 +9931,17 @@
         <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>452</v>
+        <v>129</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>453</v>
+        <v>291</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>74</v>
@@ -9936,7 +9990,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>451</v>
+        <v>152</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -9948,56 +10002,60 @@
         <v>74</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>74</v>
+        <v>458</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>265</v>
+        <v>459</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>74</v>
       </c>
@@ -10045,19 +10103,19 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>267</v>
+        <v>461</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
@@ -10066,26 +10124,26 @@
         <v>74</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>268</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -10097,17 +10155,15 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>271</v>
+        <v>463</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -10144,31 +10200,29 @@
         <v>74</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>133</v>
+        <v>466</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>274</v>
+        <v>462</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
@@ -10177,23 +10231,25 @@
         <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>84</v>
@@ -10205,20 +10261,18 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>459</v>
+        <v>288</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -10255,20 +10309,22 @@
         <v>74</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AC76" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>448</v>
+        <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>84</v>
@@ -10286,19 +10342,17 @@
         <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>464</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>74</v>
       </c>
@@ -10307,7 +10361,7 @@
         <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -10316,20 +10370,18 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10378,13 +10430,13 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>74</v>
@@ -10393,25 +10445,23 @@
         <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>74</v>
+        <v>473</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>464</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10429,20 +10479,18 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>460</v>
+        <v>144</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10491,7 +10539,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>463</v>
+        <v>146</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10503,7 +10551,7 @@
         <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>74</v>
@@ -10512,26 +10560,26 @@
         <v>74</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>464</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>74</v>
@@ -10540,18 +10588,20 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>400</v>
+        <v>129</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>471</v>
+        <v>291</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10588,31 +10638,31 @@
         <v>74</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>473</v>
+        <v>152</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>74</v>
@@ -10621,15 +10671,15 @@
         <v>74</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>474</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10637,7 +10687,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>84</v>
@@ -10652,15 +10702,17 @@
         <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -10697,22 +10749,20 @@
         <v>74</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="AC80" s="2"/>
       <c r="AD80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>74</v>
+        <v>466</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>84</v>
@@ -10730,11 +10780,455 @@
         <v>74</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>480</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM80">
+  <autoFilter ref="A1:AM84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10744,7 +11238,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/StructureDefinition-ehealth-message.xlsx
+++ b/fhir/StructureDefinition-ehealth-message.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-message.xlsx
+++ b/fhir/StructureDefinition-ehealth-message.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -355,7 +355,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -739,7 +739,7 @@
     <t>Communication.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Measure|OperationDefinition|Questionnaire)
+    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|ActivityDefinition|4.0.1|Measure|4.0.1|OperationDefinition|4.0.1|Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -777,7 +777,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
     <t>Communication.inResponseTo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Communication)
+    <t xml:space="preserve">Reference(Communication|4.0.1)
 </t>
   </si>
   <si>
@@ -879,7 +879,7 @@
     <t>Codes for the reason why a communication did not happen.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/communication-not-done-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/communication-not-done-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -900,7 +900,7 @@
     <t>Codes for general categories of communications such as alerts, instructions, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/communication-category</t>
+    <t>http://hl7.org/fhir/ValueSet/communication-category|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -1247,7 +1247,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -1278,7 +1278,7 @@
     <t>Codes describing the purpose or content of the communication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/communication-topic</t>
+    <t>http://hl7.org/fhir/ValueSet/communication-topic|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.context</t>
@@ -1299,7 +1299,7 @@
     <t>Communication.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1504,7 +1504,7 @@
     <t>Communication.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1920,7 +1920,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.65234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.72265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -4482,7 +4482,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>210</v>
       </c>
@@ -11229,12 +11229,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM84">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
